--- a/REGULAR/RE-ENCODE/re encode/COSME, MA. VICTORIA.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/COSME, MA. VICTORIA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\PICNIC GROVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0941CCA2-5212-496E-8168-1CCE8177A5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,12 +281,25 @@
   </si>
   <si>
     <t>9/12-14/22</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2023</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -979,25 +991,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1304,34 +1316,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1364,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -1371,7 +1383,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
@@ -1392,7 +1404,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31"/>
@@ -1407,7 +1419,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="9"/>
       <c r="C6" s="32"/>
@@ -1420,7 +1432,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="52" t="s">
@@ -1437,7 +1449,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1481,7 +1493,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>96.733000000000004</v>
+        <v>107.983</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1491,12 +1503,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>117</v>
+        <v>127.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>44</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>43101</v>
       </c>
@@ -1538,7 +1550,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>43132</v>
       </c>
@@ -1558,7 +1570,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>43160</v>
       </c>
@@ -1578,7 +1590,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>43191</v>
       </c>
@@ -1598,7 +1610,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>43221</v>
       </c>
@@ -1618,7 +1630,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>43252</v>
       </c>
@@ -1638,7 +1650,7 @@
       <c r="J16" s="13"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>43282</v>
       </c>
@@ -1658,7 +1670,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>43313</v>
       </c>
@@ -1678,7 +1690,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>43344</v>
       </c>
@@ -1698,7 +1710,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>43374</v>
       </c>
@@ -1718,7 +1730,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>43405</v>
       </c>
@@ -1742,7 +1754,7 @@
         <v>43421</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="42"/>
       <c r="B22" s="21" t="s">
         <v>46</v>
@@ -1761,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="42"/>
       <c r="B23" s="21" t="s">
         <v>45</v>
@@ -1778,7 +1790,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="21" t="s">
         <v>48</v>
@@ -1795,7 +1807,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>43435</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
         <v>50</v>
       </c>
@@ -1835,7 +1847,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>43466</v>
       </c>
@@ -1855,7 +1867,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>43497</v>
       </c>
@@ -1875,7 +1887,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>43525</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>43556</v>
       </c>
@@ -1921,7 +1933,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>43586</v>
       </c>
@@ -1941,7 +1953,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>43617</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>43647</v>
       </c>
@@ -1987,7 +1999,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>43678</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>43709</v>
       </c>
@@ -2033,7 +2045,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>43739</v>
       </c>
@@ -2053,7 +2065,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>43770</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="42"/>
       <c r="B38" s="21" t="s">
         <v>53</v>
@@ -2098,7 +2110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="21" t="s">
         <v>54</v>
@@ -2117,7 +2129,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>43800</v>
       </c>
@@ -2137,7 +2149,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
         <v>61</v>
       </c>
@@ -2155,7 +2167,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>43831</v>
       </c>
@@ -2177,7 +2189,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="42"/>
       <c r="B43" s="21" t="s">
         <v>45</v>
@@ -2192,7 +2204,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="42"/>
       <c r="B44" s="21" t="s">
         <v>45</v>
@@ -2207,7 +2219,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>43862</v>
       </c>
@@ -2227,7 +2239,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>43891</v>
       </c>
@@ -2247,7 +2259,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>43922</v>
       </c>
@@ -2267,7 +2279,7 @@
       <c r="J47" s="12"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>43952</v>
       </c>
@@ -2287,7 +2299,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>43983</v>
       </c>
@@ -2307,7 +2319,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>44013</v>
       </c>
@@ -2327,7 +2339,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>44044</v>
       </c>
@@ -2347,7 +2359,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>44075</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="42"/>
       <c r="B53" s="21" t="s">
         <v>63</v>
@@ -2388,7 +2400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>44105</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>44136</v>
       </c>
@@ -2438,7 +2450,7 @@
         <v>44173</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>44166</v>
       </c>
@@ -2462,7 +2474,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>68</v>
       </c>
@@ -2480,7 +2492,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>44197</v>
       </c>
@@ -2500,7 +2512,7 @@
       <c r="J58" s="12"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>44228</v>
       </c>
@@ -2520,7 +2532,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>44256</v>
       </c>
@@ -2540,7 +2552,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>44287</v>
       </c>
@@ -2560,7 +2572,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>44317</v>
       </c>
@@ -2580,7 +2592,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>44348</v>
       </c>
@@ -2600,7 +2612,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="21"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>44378</v>
       </c>
@@ -2620,7 +2632,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>44409</v>
       </c>
@@ -2640,7 +2652,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>44440</v>
       </c>
@@ -2660,7 +2672,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>44470</v>
       </c>
@@ -2686,7 +2698,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>44501</v>
       </c>
@@ -2706,7 +2718,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>44531</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>72</v>
       </c>
@@ -2748,7 +2760,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>44562</v>
       </c>
@@ -2768,7 +2780,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>44593</v>
       </c>
@@ -2788,7 +2800,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>44621</v>
       </c>
@@ -2808,7 +2820,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>44652</v>
       </c>
@@ -2828,7 +2840,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>44682</v>
       </c>
@@ -2848,7 +2860,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>44713</v>
       </c>
@@ -2874,7 +2886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>44743</v>
       </c>
@@ -2900,7 +2912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>44774</v>
       </c>
@@ -2924,7 +2936,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>44805</v>
       </c>
@@ -2950,7 +2962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>44835</v>
       </c>
@@ -2974,7 +2986,7 @@
         <v>44864</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>
       <c r="B81" s="21" t="s">
         <v>77</v>
@@ -2994,7 +3006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
       <c r="B82" s="21" t="s">
         <v>45</v>
@@ -3014,42 +3026,50 @@
         <v>44903</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>44866</v>
       </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="42">
+        <v>44896</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="42"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
@@ -3064,120 +3084,154 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="42">
+        <v>44927</v>
+      </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="41"/>
       <c r="E86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="10"/>
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="42"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="42">
+        <v>44958</v>
+      </c>
       <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="42">
+        <v>44986</v>
+      </c>
       <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="41"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="41"/>
       <c r="I88" s="10"/>
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="42"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="42">
+        <v>45017</v>
+      </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="41"/>
       <c r="E89" s="10"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="41"/>
       <c r="I89" s="10"/>
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="42">
+        <v>45047</v>
+      </c>
       <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
+      <c r="C90" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="41"/>
       <c r="E90" s="10"/>
       <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="41"/>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="42"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="42">
+        <v>45078</v>
+      </c>
       <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
+      <c r="C91" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="41"/>
       <c r="E91" s="10"/>
       <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="41"/>
       <c r="I91" s="10"/>
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="42">
+        <v>45108</v>
+      </c>
       <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
+      <c r="C92" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="41"/>
       <c r="E92" s="10"/>
       <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="41"/>
+      <c r="G92" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="41">
+        <v>1</v>
+      </c>
       <c r="I92" s="10"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="42"/>
+      <c r="K92" s="51">
+        <v>45138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="42">
+        <v>45139</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -3192,8 +3246,10 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="42">
+        <v>45170</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="41"/>
@@ -3208,7 +3264,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="42"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3224,7 +3280,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="42"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3240,7 +3296,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="42"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3256,7 +3312,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="42"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3272,7 +3328,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="42"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3288,7 +3344,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="42"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3304,7 +3360,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="42"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3320,7 +3376,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="42"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3336,7 +3392,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="42"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3352,7 +3408,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="42"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3368,7 +3424,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="42"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3384,7 +3440,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3400,7 +3456,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="42"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3416,7 +3472,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="42"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3432,7 +3488,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="42"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3448,7 +3504,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="42"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3464,7 +3520,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="42"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3480,7 +3536,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="42"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3496,7 +3552,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="42"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3512,7 +3568,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="42"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3528,7 +3584,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="42"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3544,7 +3600,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="42"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3560,7 +3616,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="42"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3576,7 +3632,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="42"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3592,7 +3648,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="42"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3608,7 +3664,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="42"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3624,7 +3680,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="42"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3640,7 +3696,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="42"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3656,7 +3712,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="42"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3672,7 +3728,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="42"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3688,7 +3744,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="42"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3704,7 +3760,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="42"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3720,7 +3776,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="42"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -3736,7 +3792,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="42"/>
       <c r="B128" s="21"/>
       <c r="C128" s="14"/>
@@ -3752,7 +3808,7 @@
       <c r="J128" s="12"/>
       <c r="K128" s="21"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="42"/>
       <c r="B129" s="21"/>
       <c r="C129" s="14"/>
@@ -3768,7 +3824,7 @@
       <c r="J129" s="12"/>
       <c r="K129" s="21"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="42"/>
       <c r="B130" s="21"/>
       <c r="C130" s="14"/>
@@ -3784,7 +3840,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="21"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="42"/>
       <c r="B131" s="21"/>
       <c r="C131" s="14"/>
@@ -3800,7 +3856,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="21"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="42"/>
       <c r="B132" s="21"/>
       <c r="C132" s="14"/>
@@ -3816,7 +3872,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="21"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="42"/>
       <c r="B133" s="21"/>
       <c r="C133" s="14"/>
@@ -3832,7 +3888,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="21"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="42"/>
       <c r="B134" s="21"/>
       <c r="C134" s="14"/>
@@ -3848,7 +3904,7 @@
       <c r="J134" s="12"/>
       <c r="K134" s="21"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="42"/>
       <c r="B135" s="21"/>
       <c r="C135" s="14"/>
@@ -3864,7 +3920,7 @@
       <c r="J135" s="12"/>
       <c r="K135" s="21"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="42"/>
       <c r="B136" s="21"/>
       <c r="C136" s="14"/>
@@ -3880,7 +3936,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="21"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="42"/>
       <c r="B137" s="21"/>
       <c r="C137" s="14"/>
@@ -3896,7 +3952,7 @@
       <c r="J137" s="12"/>
       <c r="K137" s="21"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="42"/>
       <c r="B138" s="21"/>
       <c r="C138" s="14"/>
@@ -3912,7 +3968,7 @@
       <c r="J138" s="12"/>
       <c r="K138" s="21"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="42"/>
       <c r="B139" s="21"/>
       <c r="C139" s="14"/>
@@ -3928,7 +3984,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="21"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="16"/>
       <c r="C140" s="44"/>
@@ -3959,10 +4015,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3985,28 +4041,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="39" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -4019,7 +4075,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
@@ -4048,7 +4104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>62.232999999999997</v>
       </c>
@@ -4072,17 +4128,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="35"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="40" t="s">
         <v>28</v>
       </c>
@@ -4103,7 +4159,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="39">
         <v>1</v>
       </c>
@@ -4130,7 +4186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="39">
         <v>2</v>
       </c>
@@ -4156,7 +4212,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="39">
         <v>3</v>
       </c>
@@ -4182,7 +4238,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="39">
         <v>4</v>
       </c>
@@ -4208,7 +4264,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="39">
         <v>5</v>
       </c>
@@ -4234,7 +4290,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="39">
         <v>6</v>
       </c>
@@ -4260,7 +4316,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="39">
         <v>7</v>
       </c>
@@ -4286,7 +4342,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="39">
         <v>8</v>
       </c>
@@ -4312,7 +4368,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="39">
         <v>9</v>
       </c>
@@ -4332,7 +4388,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="39">
         <v>10</v>
       </c>
@@ -4352,7 +4408,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="39">
         <v>11</v>
       </c>
@@ -4372,7 +4428,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="39">
         <v>12</v>
       </c>
@@ -4393,7 +4449,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="39">
         <v>13</v>
       </c>
@@ -4414,7 +4470,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="39">
         <v>14</v>
       </c>
@@ -4435,7 +4491,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="39">
         <v>15</v>
       </c>
@@ -4456,7 +4512,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="39">
         <v>16</v>
       </c>
@@ -4477,7 +4533,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="39">
         <v>17</v>
       </c>
@@ -4498,7 +4554,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="39">
         <v>18</v>
       </c>
@@ -4519,7 +4575,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="39">
         <v>19</v>
       </c>
@@ -4540,7 +4596,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="39">
         <v>20</v>
       </c>
@@ -4561,7 +4617,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="39">
         <v>21</v>
       </c>
@@ -4582,7 +4638,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="39">
         <v>22</v>
       </c>
@@ -4603,7 +4659,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="39">
         <v>23</v>
       </c>
@@ -4624,7 +4680,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39">
         <v>24</v>
       </c>
@@ -4645,7 +4701,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39">
         <v>25</v>
       </c>
@@ -4666,7 +4722,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39">
         <v>26</v>
       </c>
@@ -4687,7 +4743,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39">
         <v>27</v>
       </c>
@@ -4708,7 +4764,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="39">
         <v>28</v>
       </c>
@@ -4729,7 +4785,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="39">
         <v>29</v>
       </c>
@@ -4750,7 +4806,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="39">
         <v>30</v>
       </c>
@@ -4771,7 +4827,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="39">
         <v>31</v>
       </c>
@@ -4792,7 +4848,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="39">
         <v>32</v>
       </c>
@@ -4801,7 +4857,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="39">
         <v>33</v>
       </c>
@@ -4810,7 +4866,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="39">
         <v>34</v>
       </c>
@@ -4819,7 +4875,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="39">
         <v>35</v>
       </c>
@@ -4828,7 +4884,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="39">
         <v>36</v>
       </c>
@@ -4837,7 +4893,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="39">
         <v>37</v>
       </c>
@@ -4846,7 +4902,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="39">
         <v>38</v>
       </c>
@@ -4855,7 +4911,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="39">
         <v>39</v>
       </c>
@@ -4864,7 +4920,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="39">
         <v>40</v>
       </c>
@@ -4873,7 +4929,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="39">
         <v>41</v>
       </c>
@@ -4882,7 +4938,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="39">
         <v>42</v>
       </c>
@@ -4891,7 +4947,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="39">
         <v>43</v>
       </c>
@@ -4900,7 +4956,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="39">
         <v>44</v>
       </c>
@@ -4909,7 +4965,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="39">
         <v>45</v>
       </c>
@@ -4918,7 +4974,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="39">
         <v>46</v>
       </c>
@@ -4927,7 +4983,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="39">
         <v>47</v>
       </c>
@@ -4936,7 +4992,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="39">
         <v>48</v>
       </c>
@@ -4945,7 +5001,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="39">
         <v>49</v>
       </c>
@@ -4954,7 +5010,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="39">
         <v>50</v>
       </c>
@@ -4963,7 +5019,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="39">
         <v>51</v>
       </c>
@@ -4972,7 +5028,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="39">
         <v>52</v>
       </c>
@@ -4981,7 +5037,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="39">
         <v>53</v>
       </c>
@@ -4990,7 +5046,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="39">
         <v>54</v>
       </c>
@@ -4999,7 +5055,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="39">
         <v>55</v>
       </c>
@@ -5008,7 +5064,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="39">
         <v>56</v>
       </c>
@@ -5017,7 +5073,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="39">
         <v>57</v>
       </c>
@@ -5026,7 +5082,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="39">
         <v>58</v>
       </c>
@@ -5035,7 +5091,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="39">
         <v>59</v>
       </c>
@@ -5044,7 +5100,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="39">
         <v>60</v>
       </c>
@@ -5053,7 +5109,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
